--- a/ttcn2_ETest-master/src/main/java/com/example/ttcn2etest/upload/loi_nhap_du_lieu.xlsx
+++ b/ttcn2_ETest-master/src/main/java/com/example/ttcn2etest/upload/loi_nhap_du_lieu.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="33">
   <si>
     <t>Họ và tên</t>
   </si>
@@ -38,10 +38,10 @@
     <t>Nguyễn Thi Kim Anh</t>
   </si>
   <si>
-    <t>0833333333</t>
-  </si>
-  <si>
-    <t>lienltw25@gmail.com</t>
+    <t>833333323</t>
+  </si>
+  <si>
+    <t>112abcd@gmail.com</t>
   </si>
   <si>
     <t>17/02/2002</t>
@@ -50,7 +50,13 @@
     <t>Phù Chẩn - Từ Sơn -Bắc Ninh</t>
   </si>
   <si>
-    <t>lienltw25</t>
+    <t>abcd123</t>
+  </si>
+  <si>
+    <t>Số điện thoại không hợp lêk!</t>
+  </si>
+  <si>
+    <t>Email đã tồn tại trong hệ thống!</t>
   </si>
   <si>
     <t>Username đã tồn tại trong hệ thống!</t>
@@ -62,64 +68,49 @@
     <t>0943333333</t>
   </si>
   <si>
-    <t>lienltwAD@gmail.com</t>
+    <t>231nguyen@gmail.com</t>
   </si>
   <si>
     <t>17/02/2003</t>
   </si>
   <si>
-    <t>lienltwADMIN</t>
+    <t>asdsd123</t>
   </si>
   <si>
     <t>Nguyễn Văn Dương</t>
   </si>
   <si>
-    <t>phuongmai12@gmail.com</t>
+    <t>123nguyent@gmail.com</t>
   </si>
   <si>
     <t>17/02/2004</t>
   </si>
   <si>
-    <t>phuongmai</t>
+    <t>sssssss123</t>
   </si>
   <si>
     <t>Đặng Vũ Hùng</t>
   </si>
   <si>
-    <t>kimlan0202@gmail.com</t>
+    <t>12snguyenH@gmail.com</t>
   </si>
   <si>
     <t>17/02/2005</t>
   </si>
   <si>
-    <t>kimlan02</t>
+    <t>zvgt123</t>
   </si>
   <si>
     <t>Nguyễn Tiến Sơn</t>
   </si>
   <si>
-    <t>tangnguyen@gmail.com</t>
+    <t>123nguyenW@gmail.com</t>
   </si>
   <si>
     <t>17/02/2006</t>
   </si>
   <si>
-    <t>tangnguyen</t>
-  </si>
-  <si>
-    <t>tangnguyenvan</t>
-  </si>
-  <si>
-    <t>thunguyen24@gmail.com</t>
-  </si>
-  <si>
-    <t>thunguyen</t>
-  </si>
-  <si>
-    <t>kimmai@gmail.com</t>
-  </si>
-  <si>
-    <t>lienltw34</t>
+    <t>qmkgt123</t>
   </si>
 </sst>
 </file>
@@ -175,7 +166,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -208,11 +199,11 @@
       <c r="A2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" t="s">
-        <v>9</v>
+      <c r="B2" t="s" s="1">
+        <v>13</v>
+      </c>
+      <c r="C2" t="s" s="1">
+        <v>14</v>
       </c>
       <c r="D2" t="s">
         <v>10</v>
@@ -224,21 +215,21 @@
         <v>1</v>
       </c>
       <c r="G2" t="s" s="1">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="C3" t="s" s="1">
+        <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E3" t="s">
         <v>11</v>
@@ -246,22 +237,22 @@
       <c r="F3" t="b">
         <v>1</v>
       </c>
-      <c r="G3" t="s">
-        <v>18</v>
+      <c r="G3" t="s" s="1">
+        <v>15</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" t="s">
-        <v>20</v>
+        <v>17</v>
+      </c>
+      <c r="C4" t="s" s="1">
+        <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E4" t="s">
         <v>11</v>
@@ -270,21 +261,21 @@
         <v>1</v>
       </c>
       <c r="G4" t="s" s="1">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" t="s">
-        <v>24</v>
+        <v>17</v>
+      </c>
+      <c r="C5" t="s" s="1">
+        <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E5" t="s">
         <v>11</v>
@@ -292,22 +283,22 @@
       <c r="F5" t="b">
         <v>1</v>
       </c>
-      <c r="G5" t="s">
-        <v>26</v>
+      <c r="G5" t="s" s="1">
+        <v>15</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" t="s">
-        <v>28</v>
+        <v>17</v>
+      </c>
+      <c r="C6" t="s" s="1">
+        <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E6" t="s">
         <v>11</v>
@@ -315,77 +306,8 @@
       <c r="F6" t="b">
         <v>1</v>
       </c>
-      <c r="G6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" t="b">
-        <v>1</v>
-      </c>
-      <c r="G7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D8" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" t="b">
-        <v>1</v>
-      </c>
-      <c r="G8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" t="s">
-        <v>34</v>
-      </c>
-      <c r="D9" t="s">
-        <v>29</v>
-      </c>
-      <c r="E9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F9" t="b">
-        <v>1</v>
-      </c>
-      <c r="G9" t="s">
-        <v>35</v>
+      <c r="G6" t="s" s="1">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
